--- a/orders.xlsx
+++ b/orders.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Book ID</t>
   </si>
@@ -31,79 +31,22 @@
     <t>Payment Method</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Benny</t>
+  </si>
+  <si>
+    <t>8903833649</t>
+  </si>
+  <si>
+    <t>CSE</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>John Shalamon</t>
-  </si>
-  <si>
-    <t>9159645094</t>
-  </si>
-  <si>
-    <t>CSE</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>Cash on Delivery</t>
-  </si>
-  <si>
-    <t>nam</t>
-  </si>
-  <si>
-    <t>4367623444</t>
-  </si>
-  <si>
-    <t>dfsds</t>
-  </si>
-  <si>
-    <t>1234567899</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>shabi</t>
-  </si>
-  <si>
-    <t>2345678998</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>johnshalamon13@gmail.com</t>
-  </si>
-  <si>
-    <t>1234567890</t>
-  </si>
-  <si>
-    <t>EEE</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Libin Raj</t>
-  </si>
-  <si>
-    <t>7092272114</t>
-  </si>
-  <si>
-    <t>Vish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">John Shalamon </t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>As ediyed</t>
-  </si>
-  <si>
-    <t>Will it work</t>
   </si>
 </sst>
 </file>
@@ -480,7 +423,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -523,308 +466,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>
--- a/orders.xlsx
+++ b/orders.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="13">
   <si>
     <t>Book ID</t>
   </si>
@@ -34,19 +34,22 @@
     <t>1</t>
   </si>
   <si>
+    <t>Bennyhinn Sam</t>
+  </si>
+  <si>
+    <t>8903833649</t>
+  </si>
+  <si>
+    <t>CSE</t>
+  </si>
+  <si>
+    <t>Cash on Delivery</t>
+  </si>
+  <si>
+    <t>Bennyhinn Sam1</t>
+  </si>
+  <si>
     <t>Benny</t>
-  </si>
-  <si>
-    <t>8903833649</t>
-  </si>
-  <si>
-    <t>CSE</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Cash on Delivery</t>
   </si>
 </sst>
 </file>
@@ -423,7 +426,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F6"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -460,10 +463,90 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
